--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnc-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnc-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tnc</t>
+  </si>
+  <si>
+    <t>Itgav</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tnc</t>
-  </si>
-  <si>
-    <t>Itgav</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H2">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I2">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J2">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N2">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q2">
-        <v>52.16421993390733</v>
+        <v>382.616111615426</v>
       </c>
       <c r="R2">
-        <v>469.477979405166</v>
+        <v>3443.545004538834</v>
       </c>
       <c r="S2">
-        <v>0.001431848393066296</v>
+        <v>0.009632239952212756</v>
       </c>
       <c r="T2">
-        <v>0.001431848393066296</v>
+        <v>0.009632239952212756</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H3">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I3">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J3">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P3">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q3">
-        <v>372.3110370040847</v>
+        <v>1504.517368566874</v>
       </c>
       <c r="R3">
-        <v>3350.799333036762</v>
+        <v>13540.65631710186</v>
       </c>
       <c r="S3">
-        <v>0.01021951369598893</v>
+        <v>0.03787575030524033</v>
       </c>
       <c r="T3">
-        <v>0.01021951369598893</v>
+        <v>0.03787575030524034</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H4">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I4">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J4">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N4">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q4">
-        <v>364.084539967852</v>
+        <v>1392.568147469287</v>
       </c>
       <c r="R4">
-        <v>3276.760859710668</v>
+        <v>12533.11332722358</v>
       </c>
       <c r="S4">
-        <v>0.009993705726909385</v>
+        <v>0.03505746396721201</v>
       </c>
       <c r="T4">
-        <v>0.009993705726909387</v>
+        <v>0.03505746396721202</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H5">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I5">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J5">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N5">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q5">
-        <v>106.2011807569147</v>
+        <v>361.7033010282034</v>
       </c>
       <c r="R5">
-        <v>955.8106268122319</v>
+        <v>3255.32970925383</v>
       </c>
       <c r="S5">
-        <v>0.00291510138944277</v>
+        <v>0.009105766540518655</v>
       </c>
       <c r="T5">
-        <v>0.00291510138944277</v>
+        <v>0.009105766540518655</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H6">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I6">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J6">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N6">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q6">
-        <v>158.0511648013953</v>
+        <v>696.9481899471896</v>
       </c>
       <c r="R6">
-        <v>1422.460483212558</v>
+        <v>6272.533709524706</v>
       </c>
       <c r="S6">
-        <v>0.004338324365434116</v>
+        <v>0.01754545089982831</v>
       </c>
       <c r="T6">
-        <v>0.004338324365434116</v>
+        <v>0.01754545089982831</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H7">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I7">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J7">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N7">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q7">
-        <v>416.0338958530767</v>
+        <v>1888.418321564413</v>
       </c>
       <c r="R7">
-        <v>3744.30506267769</v>
+        <v>16995.76489407971</v>
       </c>
       <c r="S7">
-        <v>0.01141965634668925</v>
+        <v>0.04754033573407401</v>
       </c>
       <c r="T7">
-        <v>0.01141965634668925</v>
+        <v>0.04754033573407401</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>254.912293</v>
       </c>
       <c r="I8">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J8">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N8">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q8">
-        <v>849.8053880359047</v>
+        <v>1542.477088978223</v>
       </c>
       <c r="R8">
-        <v>7648.248492323142</v>
+        <v>13882.29380080401</v>
       </c>
       <c r="S8">
-        <v>0.02332618949962216</v>
+        <v>0.03883137429602651</v>
       </c>
       <c r="T8">
-        <v>0.02332618949962216</v>
+        <v>0.03883137429602652</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>254.912293</v>
       </c>
       <c r="I9">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J9">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P9">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q9">
         <v>6065.30540803981</v>
@@ -1013,10 +1013,10 @@
         <v>54587.7486723583</v>
       </c>
       <c r="S9">
-        <v>0.1664857216874248</v>
+        <v>0.1526921509578629</v>
       </c>
       <c r="T9">
-        <v>0.1664857216874249</v>
+        <v>0.1526921509578629</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>254.912293</v>
       </c>
       <c r="I10">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J10">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N10">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q10">
-        <v>5931.287847441578</v>
+        <v>5613.993757981676</v>
       </c>
       <c r="R10">
-        <v>53381.59062697421</v>
+        <v>50525.94382183509</v>
       </c>
       <c r="S10">
-        <v>0.1628070923696976</v>
+        <v>0.1413305224884418</v>
       </c>
       <c r="T10">
-        <v>0.1628070923696976</v>
+        <v>0.1413305224884418</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>254.912293</v>
       </c>
       <c r="I11">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J11">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N11">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q11">
-        <v>1730.119529005693</v>
+        <v>1458.169266548218</v>
       </c>
       <c r="R11">
-        <v>15571.07576105123</v>
+        <v>13123.52339893396</v>
       </c>
       <c r="S11">
-        <v>0.04748980950080622</v>
+        <v>0.03670895145276011</v>
       </c>
       <c r="T11">
-        <v>0.04748980950080623</v>
+        <v>0.03670895145276012</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>254.912293</v>
       </c>
       <c r="I12">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J12">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N12">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q12">
-        <v>2574.805711726395</v>
+        <v>2809.674194480629</v>
       </c>
       <c r="R12">
-        <v>23173.25140553756</v>
+        <v>25287.06775032566</v>
       </c>
       <c r="S12">
-        <v>0.07067548264815404</v>
+        <v>0.07073266181738694</v>
       </c>
       <c r="T12">
-        <v>0.07067548264815406</v>
+        <v>0.07073266181738695</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>254.912293</v>
       </c>
       <c r="I13">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J13">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N13">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q13">
-        <v>6777.59289316436</v>
+        <v>7612.962201517441</v>
       </c>
       <c r="R13">
-        <v>60998.33603847925</v>
+        <v>68516.65981365697</v>
       </c>
       <c r="S13">
-        <v>0.1860372014616653</v>
+        <v>0.191653922681246</v>
       </c>
       <c r="T13">
-        <v>0.1860372014616654</v>
+        <v>0.1916539226812461</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H14">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I14">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J14">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N14">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q14">
-        <v>0.3356152691692222</v>
+        <v>506.96386727848</v>
       </c>
       <c r="R14">
-        <v>3.020537422523</v>
+        <v>4562.67480550632</v>
       </c>
       <c r="S14">
-        <v>9.212256685853365E-06</v>
+        <v>0.01276265548805808</v>
       </c>
       <c r="T14">
-        <v>9.212256685853365E-06</v>
+        <v>0.01276265548805808</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H15">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I15">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J15">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P15">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q15">
-        <v>2.395382679106778</v>
+        <v>1993.475759125751</v>
       </c>
       <c r="R15">
-        <v>21.558444111961</v>
+        <v>17941.28183213176</v>
       </c>
       <c r="S15">
-        <v>6.575052486557848E-05</v>
+        <v>0.05018512359489608</v>
       </c>
       <c r="T15">
-        <v>6.575052486557849E-05</v>
+        <v>0.05018512359489609</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H16">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I16">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J16">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N16">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q16">
-        <v>2.342454867272667</v>
+        <v>1845.143766970933</v>
       </c>
       <c r="R16">
-        <v>21.082093805454</v>
+        <v>16606.2939027384</v>
       </c>
       <c r="S16">
-        <v>6.429771674500834E-05</v>
+        <v>0.0464509124687817</v>
       </c>
       <c r="T16">
-        <v>6.429771674500834E-05</v>
+        <v>0.04645091246878172</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H17">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I17">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J17">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N17">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q17">
-        <v>0.6832794185551111</v>
+        <v>479.2545288342667</v>
       </c>
       <c r="R17">
-        <v>6.149514766996</v>
+        <v>4313.2907595084</v>
       </c>
       <c r="S17">
-        <v>1.87552414032644E-05</v>
+        <v>0.01206508163084423</v>
       </c>
       <c r="T17">
-        <v>1.87552414032644E-05</v>
+        <v>0.01206508163084423</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H18">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I18">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J18">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N18">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q18">
-        <v>1.016872950166556</v>
+        <v>923.4518331614311</v>
       </c>
       <c r="R18">
-        <v>9.151856551499</v>
+        <v>8311.066498452879</v>
       </c>
       <c r="S18">
-        <v>2.791200369704263E-05</v>
+        <v>0.02324760868999179</v>
       </c>
       <c r="T18">
-        <v>2.791200369704263E-05</v>
+        <v>0.02324760868999179</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H19">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I19">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J19">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N19">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q19">
-        <v>2.676687739549445</v>
+        <v>2502.142032905529</v>
       </c>
       <c r="R19">
-        <v>24.090189655945</v>
+        <v>22519.27829614976</v>
       </c>
       <c r="S19">
-        <v>7.347202821148463E-05</v>
+        <v>0.06299063662977172</v>
       </c>
       <c r="T19">
-        <v>7.347202821148464E-05</v>
+        <v>0.06299063662977172</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H20">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I20">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J20">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N20">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q20">
-        <v>390.3978969393331</v>
+        <v>8.147026751300999</v>
       </c>
       <c r="R20">
-        <v>3513.581072453998</v>
+        <v>73.323240761709</v>
       </c>
       <c r="S20">
-        <v>0.01071597739019759</v>
+        <v>0.0002050988293051895</v>
       </c>
       <c r="T20">
-        <v>0.01071597739019759</v>
+        <v>0.0002050988293051895</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H21">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I21">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J21">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P21">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q21">
-        <v>2786.382045736643</v>
+        <v>32.035617103943</v>
       </c>
       <c r="R21">
-        <v>25077.43841162978</v>
+        <v>288.320553935487</v>
       </c>
       <c r="S21">
-        <v>0.07648301191337198</v>
+        <v>0.0008064865581837906</v>
       </c>
       <c r="T21">
-        <v>0.07648301191337199</v>
+        <v>0.0008064865581837907</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H22">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I22">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J22">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N22">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q22">
-        <v>2724.814803933889</v>
+        <v>29.65188763887</v>
       </c>
       <c r="R22">
-        <v>24523.333235405</v>
+        <v>266.86698874983</v>
       </c>
       <c r="S22">
-        <v>0.0747930612852884</v>
+        <v>0.0007464769206078878</v>
       </c>
       <c r="T22">
-        <v>0.0747930612852884</v>
+        <v>0.000746476920607888</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H23">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I23">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J23">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N23">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q23">
-        <v>794.8114181042996</v>
+        <v>7.701731265495</v>
       </c>
       <c r="R23">
-        <v>7153.302762938696</v>
+        <v>69.31558138945501</v>
       </c>
       <c r="S23">
-        <v>0.02181666769378143</v>
+        <v>0.0001938886558736229</v>
       </c>
       <c r="T23">
-        <v>0.02181666769378143</v>
+        <v>0.0001938886558736229</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H24">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I24">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J24">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N24">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q24">
-        <v>1182.857568376464</v>
+        <v>14.840084814509</v>
       </c>
       <c r="R24">
-        <v>10645.71811538817</v>
+        <v>133.560763330581</v>
       </c>
       <c r="S24">
-        <v>0.0324680923179154</v>
+        <v>0.0003735944553955796</v>
       </c>
       <c r="T24">
-        <v>0.0324680923179154</v>
+        <v>0.0003735944553955796</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H25">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I25">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J25">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N25">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q25">
-        <v>3113.604654728952</v>
+        <v>40.21000192196799</v>
       </c>
       <c r="R25">
-        <v>28022.44189256057</v>
+        <v>361.890017297712</v>
       </c>
       <c r="S25">
-        <v>0.08546489964128655</v>
+        <v>0.001012274118191411</v>
       </c>
       <c r="T25">
-        <v>0.08546489964128658</v>
+        <v>0.001012274118191411</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H26">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I26">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J26">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N26">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q26">
-        <v>0.08067927973899999</v>
+        <v>0.6189216091240001</v>
       </c>
       <c r="R26">
-        <v>0.726113517651</v>
+        <v>5.570294482116</v>
       </c>
       <c r="S26">
-        <v>2.214554290170525E-06</v>
+        <v>1.558115633322861E-05</v>
       </c>
       <c r="T26">
-        <v>2.214554290170525E-06</v>
+        <v>1.558115633322861E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H27">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I27">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J27">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P27">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q27">
-        <v>0.575831218073</v>
+        <v>2.433714322109778</v>
       </c>
       <c r="R27">
-        <v>5.182480962657</v>
+        <v>21.903428898988</v>
       </c>
       <c r="S27">
-        <v>1.580591074341546E-05</v>
+        <v>6.126799058911628E-05</v>
       </c>
       <c r="T27">
-        <v>1.580591074341547E-05</v>
+        <v>6.126799058911628E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H28">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I28">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J28">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N28">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q28">
-        <v>0.5631077870219999</v>
+        <v>2.252624739213334</v>
       </c>
       <c r="R28">
-        <v>5.067970083198</v>
+        <v>20.27362265292</v>
       </c>
       <c r="S28">
-        <v>1.545666706014469E-05</v>
+        <v>5.670911744616326E-05</v>
       </c>
       <c r="T28">
-        <v>1.54566670601447E-05</v>
+        <v>5.670911744616328E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H29">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I29">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J29">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N29">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q29">
-        <v>0.164255015828</v>
+        <v>0.5850929490466668</v>
       </c>
       <c r="R29">
-        <v>1.478295142452</v>
+        <v>5.265836541420001</v>
       </c>
       <c r="S29">
-        <v>4.50861300647047E-06</v>
+        <v>1.472953048362448E-05</v>
       </c>
       <c r="T29">
-        <v>4.508613006470472E-06</v>
+        <v>1.472953048362448E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H30">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I30">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J30">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N30">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q30">
-        <v>0.244448285707</v>
+        <v>1.127386647093778</v>
       </c>
       <c r="R30">
-        <v>2.200034571363</v>
+        <v>10.146479823844</v>
       </c>
       <c r="S30">
-        <v>6.709826879820097E-06</v>
+        <v>2.838160332004705E-05</v>
       </c>
       <c r="T30">
-        <v>6.709826879820098E-06</v>
+        <v>2.838160332004705E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H31">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I31">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J31">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N31">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q31">
-        <v>0.643454749385</v>
+        <v>3.054714296654223</v>
       </c>
       <c r="R31">
-        <v>5.791092744465001</v>
+        <v>27.492428669888</v>
       </c>
       <c r="S31">
-        <v>1.766209961703872E-05</v>
+        <v>7.690146911639359E-05</v>
       </c>
       <c r="T31">
-        <v>1.766209961703873E-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.309271</v>
-      </c>
-      <c r="I32">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J32">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>10.00115033333333</v>
-      </c>
-      <c r="N32">
-        <v>30.003451</v>
-      </c>
-      <c r="O32">
-        <v>0.03551374247070085</v>
-      </c>
-      <c r="P32">
-        <v>0.03551374247070085</v>
-      </c>
-      <c r="Q32">
-        <v>1.031021921580111</v>
-      </c>
-      <c r="R32">
-        <v>9.279197294220999</v>
-      </c>
-      <c r="S32">
-        <v>2.830037683878056E-05</v>
-      </c>
-      <c r="T32">
-        <v>2.830037683878057E-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H33">
-        <v>0.309271</v>
-      </c>
-      <c r="I33">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J33">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>71.38108566666666</v>
-      </c>
-      <c r="N33">
-        <v>214.143257</v>
-      </c>
-      <c r="O33">
-        <v>0.253471791659403</v>
-      </c>
-      <c r="P33">
-        <v>0.2534717916594031</v>
-      </c>
-      <c r="Q33">
-        <v>7.358699915071889</v>
-      </c>
-      <c r="R33">
-        <v>66.228299235647</v>
-      </c>
-      <c r="S33">
-        <v>0.0002019879270082576</v>
-      </c>
-      <c r="T33">
-        <v>0.0002019879270082577</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H34">
-        <v>0.309271</v>
-      </c>
-      <c r="I34">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J34">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>69.803866</v>
-      </c>
-      <c r="N34">
-        <v>209.411598</v>
-      </c>
-      <c r="O34">
-        <v>0.2478711386150191</v>
-      </c>
-      <c r="P34">
-        <v>0.2478711386150191</v>
-      </c>
-      <c r="Q34">
-        <v>7.196103813895333</v>
-      </c>
-      <c r="R34">
-        <v>64.76493432505801</v>
-      </c>
-      <c r="S34">
-        <v>0.000197524849318541</v>
-      </c>
-      <c r="T34">
-        <v>0.000197524849318541</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H35">
-        <v>0.309271</v>
-      </c>
-      <c r="I35">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J35">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>20.36135066666667</v>
-      </c>
-      <c r="N35">
-        <v>61.084052</v>
-      </c>
-      <c r="O35">
-        <v>0.07230245920027331</v>
-      </c>
-      <c r="P35">
-        <v>0.07230245920027331</v>
-      </c>
-      <c r="Q35">
-        <v>2.099058427343556</v>
-      </c>
-      <c r="R35">
-        <v>18.891525846092</v>
-      </c>
-      <c r="S35">
-        <v>5.761676183315272E-05</v>
-      </c>
-      <c r="T35">
-        <v>5.761676183315273E-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.309271</v>
-      </c>
-      <c r="I36">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J36">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>30.30225433333333</v>
-      </c>
-      <c r="N36">
-        <v>90.906763</v>
-      </c>
-      <c r="O36">
-        <v>0.1076022678200263</v>
-      </c>
-      <c r="P36">
-        <v>0.1076022678200263</v>
-      </c>
-      <c r="Q36">
-        <v>3.123869499974778</v>
-      </c>
-      <c r="R36">
-        <v>28.114825499773</v>
-      </c>
-      <c r="S36">
-        <v>8.574665794590476E-05</v>
-      </c>
-      <c r="T36">
-        <v>8.574665794590478E-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.309271</v>
-      </c>
-      <c r="I37">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J37">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>79.76382166666667</v>
-      </c>
-      <c r="N37">
-        <v>239.291465</v>
-      </c>
-      <c r="O37">
-        <v>0.2832386002345773</v>
-      </c>
-      <c r="P37">
-        <v>0.2832386002345773</v>
-      </c>
-      <c r="Q37">
-        <v>8.222878963557223</v>
-      </c>
-      <c r="R37">
-        <v>74.00591067201501</v>
-      </c>
-      <c r="S37">
-        <v>0.0002257086571076064</v>
-      </c>
-      <c r="T37">
-        <v>0.0002257086571076065</v>
+        <v>7.690146911639359E-05</v>
       </c>
     </row>
   </sheetData>
